--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H50_B32.xlsx
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08613522381264256</v>
+        <v>0.09935163895303707</v>
       </c>
       <c r="J2" t="n">
-        <v>1132.441733385107</v>
+        <v>1292.497906882464</v>
       </c>
       <c r="K2" t="n">
-        <v>1727869.652925631</v>
+        <v>2163831.024487163</v>
       </c>
       <c r="L2" t="n">
-        <v>1314.484557887855</v>
+        <v>1470.99660927113</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6769861530577227</v>
+        <v>0.5954860471279249</v>
       </c>
     </row>
   </sheetData>
